--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiaandruetto/Documents/HubsModel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ug.kth.se\dfs\home\a\n\andru\appdata\xp.V2\Documents\GitHub\HubsModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C558F-9463-164C-A5D0-89FDA310407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31520" yWindow="-660" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{7E14CD48-C6EF-524C-97AC-20EBF6EEA564}"/>
+    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="16935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
     <sheet name="hubs" sheetId="2" r:id="rId2"/>
+    <sheet name="demand" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>total number of companies</t>
   </si>
@@ -51,12 +51,30 @@
   </si>
   <si>
     <t>maximum funds per unit of time</t>
+  </si>
+  <si>
+    <t>total demand</t>
+  </si>
+  <si>
+    <t>single hub capacity</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Box/Hub</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>Dmnl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -401,19 +419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197579BB-F3D0-2545-B718-69CF9C3C23B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -429,7 +447,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -443,19 +461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191107FC-2FBF-EF4B-8E68-E98BF3549123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -463,12 +481,63 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="16935" activeTab="2"/>
+    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="16935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
     <sheet name="hubs" sheetId="2" r:id="rId2"/>
     <sheet name="demand" sheetId="3" r:id="rId3"/>
+    <sheet name="cost" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>total number of companies</t>
   </si>
@@ -69,6 +70,24 @@
   </si>
   <si>
     <t>Dmnl</t>
+  </si>
+  <si>
+    <t>hubs location variable</t>
+  </si>
+  <si>
+    <t>initial routing and consolidation efficiency</t>
+  </si>
+  <si>
+    <t>total operation cost of one hub</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>$/Month</t>
+  </si>
+  <si>
+    <t>operation cost</t>
   </si>
 </sst>
 </file>
@@ -498,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -543,4 +562,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>0.7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="16935" activeTab="3"/>
+    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>total number of companies</t>
   </si>
@@ -45,9 +45,6 @@
     <t>company contact rate</t>
   </si>
   <si>
-    <t>company adoption fraction</t>
-  </si>
-  <si>
     <t>building cost of hubs</t>
   </si>
   <si>
@@ -87,7 +84,13 @@
     <t>$/Month</t>
   </si>
   <si>
-    <t>operation cost</t>
+    <t>minimum operation cost</t>
+  </si>
+  <si>
+    <t>initial push time</t>
+  </si>
+  <si>
+    <t>initial company adoption fraction</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -468,10 +471,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>100000</v>
@@ -502,7 +513,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -518,7 +529,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,35 +539,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>10000</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +580,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,52 +590,52 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0.7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -16,6 +16,7 @@
     <sheet name="hubs" sheetId="2" r:id="rId2"/>
     <sheet name="demand" sheetId="3" r:id="rId3"/>
     <sheet name="cost" sheetId="4" r:id="rId4"/>
+    <sheet name="emissions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>total number of companies</t>
   </si>
@@ -91,6 +92,15 @@
   </si>
   <si>
     <t>initial company adoption fraction</t>
+  </si>
+  <si>
+    <t>emissions of diesel trucks</t>
+  </si>
+  <si>
+    <t>emissions of environmetally friendly vehicle types</t>
+  </si>
+  <si>
+    <t>CO2/box</t>
   </si>
 </sst>
 </file>
@@ -529,7 +539,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -641,4 +651,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="3"/>
+    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>total number of companies</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>CO2/box</t>
+  </si>
+  <si>
+    <t>goal of co2 emissions</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>minimum utilization rate</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,7 +522,7 @@
     <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -521,12 +530,23 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -655,10 +675,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -688,6 +708,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1000000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="-31512" yWindow="-660" windowWidth="28032" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>total number of companies</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>minimum utilization rate</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>dmnl</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>$/hub</t>
+  </si>
+  <si>
+    <t>$/month</t>
   </si>
 </sst>
 </file>
@@ -461,47 +476,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
         <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -513,32 +540,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -559,15 +592,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -589,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -610,15 +643,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -632,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -646,18 +679,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -677,16 +710,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -697,7 +730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -708,7 +741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>

--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31512" yWindow="-660" windowWidth="28032" windowHeight="9420" activeTab="4"/>
+    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>total number of companies</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>$/month</t>
+  </si>
+  <si>
+    <t>adjustment time for total utilized capacity</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -482,12 +488,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,7 +515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -520,7 +526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -538,18 +544,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -560,7 +566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -571,7 +577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -580,6 +586,17 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -591,16 +608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -611,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -622,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -646,12 +663,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -665,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -679,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -690,7 +707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -710,16 +727,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -730,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -741,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>

--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Box/Hub</t>
   </si>
   <si>
-    <t>goal</t>
-  </si>
-  <si>
     <t>Dmnl</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>average delay time in dropping out</t>
   </si>
 </sst>
 </file>
@@ -482,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,29 +512,40 @@
         <v>0.3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.3</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +574,7 @@
         <v>100000</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,29 +585,29 @@
         <v>10000</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -606,10 +617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,17 +650,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,52 +670,52 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -738,35 +738,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1000000</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Exogenous values.xlsx
+++ b/Exogenous values.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="3"/>
+    <workbookView xWindow="-31515" yWindow="-660" windowWidth="28035" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="company" sheetId="1" r:id="rId1"/>
-    <sheet name="hubs" sheetId="2" r:id="rId2"/>
-    <sheet name="demand" sheetId="3" r:id="rId3"/>
+    <sheet name="variable assumptions and source" sheetId="6" r:id="rId1"/>
+    <sheet name="company" sheetId="1" r:id="rId2"/>
+    <sheet name="hubs" sheetId="2" r:id="rId3"/>
     <sheet name="cost" sheetId="4" r:id="rId4"/>
     <sheet name="emissions" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>total number of companies</t>
   </si>
@@ -131,13 +131,73 @@
   </si>
   <si>
     <t>average delay time in dropping out</t>
+  </si>
+  <si>
+    <t>Calculating the total demand for stockholm</t>
+  </si>
+  <si>
+    <t>Total population in sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total population in stockholm </t>
+  </si>
+  <si>
+    <t>https://worldpopulationreview.com/world-cities/stockholm-population</t>
+  </si>
+  <si>
+    <t>https://worldpopulationreview.com/countries/sweden-population</t>
+  </si>
+  <si>
+    <t>Share of population that lives in Stockholm</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwiIweHQ2YPzAhXrkIsKHVvbBYgQFnoECAcQAQ&amp;url=https%3A%2F%2Fwww.pts.se%2Fglobalassets%2Fstartpage%2Fdokument%2Ficke-legala-dokument%2Frapporter%2F2020%2Fpost%2Fswedish-postal-market-2020.pdf&amp;usg=AOvVaw2czDNsaHt0Xe07B0P7cw6n</t>
+  </si>
+  <si>
+    <t>Number of parcels in Sweden</t>
+  </si>
+  <si>
+    <t>pg 37</t>
+  </si>
+  <si>
+    <t>Number of letters in Sweden (2019) ??</t>
+  </si>
+  <si>
+    <t>Assumption of parcels in Stockholm per year</t>
+  </si>
+  <si>
+    <t>Assumption of parcels in Stockholm per month</t>
+  </si>
+  <si>
+    <t>Calculating the emission factors</t>
+  </si>
+  <si>
+    <t>Emissions for road freight - light duty vehicles - 2019</t>
+  </si>
+  <si>
+    <t>Total Greenhouse Gases (kt CO2-eqv.)</t>
+  </si>
+  <si>
+    <t>In stockholm</t>
+  </si>
+  <si>
+    <t>per parcel</t>
+  </si>
+  <si>
+    <t>kgCO2-eqv./Parcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swedish environmental protection agency </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,13 +205,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,8 +246,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +578,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10173195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1656571</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <f>B3/B2</f>
+        <v>0.16283684722449535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <f>1.8055*10^9</f>
+        <v>1805500000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <f>246*10^6</f>
+        <v>246000000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B6*B4</f>
+        <v>40057864.417225853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B7/12</f>
+        <v>3338155.3681021542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1503.7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <f>B13*B4</f>
+        <v>244.85776717147365</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B14/B8</f>
+        <v>7.3351219512195133E-5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B15*10^6</f>
+        <v>73.351219512195129</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,17 +814,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,43 +872,26 @@
         <v>29</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>10000</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B5" s="3">
+        <f>'variable assumptions and source'!B8</f>
+        <v>3338155.3681021542</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6">
+        <v>300000</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -659,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -728,12 +973,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -763,7 +1009,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>1000000</v>
+        <v>300000000</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
